--- a/medicine/Handicap/Même_pas_peur/Même_pas_peur.xlsx
+++ b/medicine/Handicap/Même_pas_peur/Même_pas_peur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%AAme_pas_peur</t>
+          <t>Même_pas_peur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Même pas peur (Ik ben echt niet bang!) est un film documentaire néerlandais, réalisé par Willem Baptist, sorti en 2010.
 La première du film a eu lieu au 23e Festival international du film documentaire d'Amsterdam (IDFA). Le film a été projeté dans plus de 90 festivals à travers le monde.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%AAme_pas_peur</t>
+          <t>Même_pas_peur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film raconte l'histoire d'un enfant de neuf ans, Mack Bouwense, qui, malgré une anomalie cardiaque (situs inversus), veut devenir champion de motocross.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%AAme_pas_peur</t>
+          <t>Même_pas_peur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Même pas peur
 Titre original : Ik ben echt niet bang!
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%AAme_pas_peur</t>
+          <t>Même_pas_peur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,10 +601,12 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Même pas peur a remporté le Prix du Jury au Kinderkast Cinekid à Amsterdam et a reçu plusieurs prix à l'étranger, y compris une Golden Gate Award lors du 55e Festival international du film de San Francisco.
-En 2012, le documentaire a été nommé pour un prix de l'industrie de la télévision par l'Institut néerlandais pour Sound and Vision[1],[2].</t>
+En 2012, le documentaire a été nommé pour un prix de l'industrie de la télévision par l'Institut néerlandais pour Sound and Vision,.</t>
         </is>
       </c>
     </row>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%AAme_pas_peur</t>
+          <t>Même_pas_peur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 20 novembre 2010, le film a été diffusé à la télévision aux Pays-Bas sur Nederland 3. En 2014, la chaîne franco-allemande Arte a diffusé le film pour les pays de langue germanique sous le titre alternatif Kleine große Helden – Angst kenne ich nicht et dans les pays francophones avec le titre Même pas peur[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 20 novembre 2010, le film a été diffusé à la télévision aux Pays-Bas sur Nederland 3. En 2014, la chaîne franco-allemande Arte a diffusé le film pour les pays de langue germanique sous le titre alternatif Kleine große Helden – Angst kenne ich nicht et dans les pays francophones avec le titre Même pas peur,.
 Même pas peur est-ce l'un des derniers documentaires filmé en 16 mm celluloïd aux Pays-Bas.
 </t>
         </is>
